--- a/rdportal/src/test/resources/testdata/empdata.xlsx
+++ b/rdportal/src/test/resources/testdata/empdata.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEELA\eclipseworkspace2\rdportal\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AB207F-9593-4DFA-A61F-D912E9AD8F57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9937174A-F6B9-43E8-8875-BDADA5B97B55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7395" yWindow="1035" windowWidth="8835" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>FirstName</t>
   </si>
@@ -76,6 +79,45 @@
   </si>
   <si>
     <t>abhi</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>yearofpass</t>
+  </si>
+  <si>
+    <t>empid</t>
+  </si>
+  <si>
+    <t>sandy</t>
+  </si>
+  <si>
+    <t>neela</t>
+  </si>
+  <si>
+    <t>praban</t>
+  </si>
+  <si>
+    <t>srikal</t>
+  </si>
+  <si>
+    <t>kun</t>
+  </si>
+  <si>
+    <t>dfd</t>
+  </si>
+  <si>
+    <t>fss</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>jj</t>
   </si>
 </sst>
 </file>
@@ -397,7 +439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
@@ -529,4 +571,185 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9AB57B-6044-4AE4-9864-05477DA2A910}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>2013</v>
+      </c>
+      <c r="D2">
+        <v>79</v>
+      </c>
+      <c r="E2">
+        <v>65</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>2015</v>
+      </c>
+      <c r="D3">
+        <v>85</v>
+      </c>
+      <c r="E3">
+        <v>45</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>2016</v>
+      </c>
+      <c r="D4">
+        <v>65</v>
+      </c>
+      <c r="E4">
+        <v>96</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25FCDD0-9C1C-441D-8A1D-4563814CAC39}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3094D26E-3633-455E-9FA1-17E2B7308757}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>2019</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>